--- a/bdo-resources.xlsx
+++ b/bdo-resources.xlsx
@@ -14,14 +14,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
+  <si>
+    <t>1395863403888644219</t>
+  </si>
+  <si>
+    <t>bdo-resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> khara formula</t>
+  </si>
+  <si>
+    <t>1391771409478455406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New upgrade order with sov offhand
+</t>
+  </si>
+  <si>
+    <t>1388982354302730445</t>
+  </si>
+  <si>
+    <t>1357402606498218225</t>
+  </si>
+  <si>
+    <t>Siege caps</t>
+  </si>
+  <si>
+    <t>1357402218495606936</t>
+  </si>
+  <si>
+    <t>T2 caps</t>
+  </si>
+  <si>
+    <t>1357168808128675902</t>
+  </si>
+  <si>
+    <t>Basics of base building</t>
+  </si>
+  <si>
+    <t>1357165131687137362</t>
+  </si>
+  <si>
+    <t>Basic Ele guide</t>
+  </si>
+  <si>
+    <t>1355704326584275097</t>
+  </si>
+  <si>
+    <t>Crystal Sets - Tide</t>
+  </si>
+  <si>
+    <t>1355703889613160449</t>
+  </si>
+  <si>
+    <t>T2 Set</t>
+  </si>
+  <si>
+    <t>1355702054634651850</t>
+  </si>
+  <si>
+    <t>T1 Set</t>
+  </si>
+  <si>
+    <t>1355700877373079663</t>
+  </si>
+  <si>
+    <t>Uncapped Full blast pvp</t>
+  </si>
+  <si>
+    <t>1338222287815704668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prize fish 2 </t>
+  </si>
+  <si>
+    <t>1332143311359840337</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sniper Hunting Guide 2025</t>
+  </si>
+  <si>
+    <t>1325435063608938668</t>
+  </si>
+  <si>
+    <t>New Manos tools</t>
+  </si>
+  <si>
+    <t>1325259439414186085</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fishing durability stacking</t>
+  </si>
+  <si>
+    <t>1307994877191127041</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prize fish</t>
+  </si>
+  <si>
+    <t>1284997631139123283</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Boss shrine</t>
+  </si>
+  <si>
+    <t>1284947369988853883</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AP Brackets</t>
+  </si>
+  <si>
+    <t>1283638485441577101</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> new bosses</t>
+  </si>
+  <si>
+    <t>1283628445724839969</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sov stack</t>
+  </si>
+  <si>
+    <t>1277063802436980760</t>
+  </si>
+  <si>
+    <t>pvp elixirs</t>
+  </si>
   <si>
     <t>1266133697980141588</t>
   </si>
   <si>
-    <t>bdo-resources</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Harmony draught</t>
   </si>
   <si>
@@ -37,18 +161,6 @@
     <t>PvE Crystals</t>
   </si>
   <si>
-    <t>1256061255320473671</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PvP Elixirs</t>
-  </si>
-  <si>
-    <t>1256060895285481564</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ocean Highways</t>
-  </si>
-  <si>
     <t>1255712580941516881</t>
   </si>
   <si>
@@ -64,7 +176,7 @@
     <t>1255706209089093774</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sov Weapon</t>
+    <t xml:space="preserve">  Sov Weapon</t>
   </si>
   <si>
     <t>1255242593525170176</t>
@@ -444,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -479,151 +591,357 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
